--- a/testdata/invalid-testdata/excel2json/new_lists_invalid_shape/list_missing_translation_column.xlsx
+++ b/testdata/invalid-testdata/excel2json/new_lists_invalid_shape/list_missing_translation_column.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists_invalid_shape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91434E3-EEE9-B74A-BAC8-0548F9797BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6477786-2BAD-3749-9FA2-BE4E8F1C22E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{D91ABA37-B3CA-5B43-B231-AA7C3C70749D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Knoten1</t>
+  </si>
+  <si>
+    <t>en_comments</t>
   </si>
 </sst>
 </file>
@@ -424,45 +427,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1217C9B-553E-EE4C-A40A-9B357E11BC57}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
